--- a/downloads/HPC-ED_draft_spreadsheet_template.xlsx
+++ b/downloads/HPC-ED_draft_spreadsheet_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4CCE3-CA33-244F-AE18-E4387E30FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2B718F-732A-8A4F-8CAE-52D1CB0BAE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="500" windowWidth="45600" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
+    <workbookView xWindow="15700" yWindow="2080" windowWidth="45600" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
   <sheets>
     <sheet name="share" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
-            <a:t>hpc-ed-train@gmail.com</a:t>
+            <a:t>hpc.edu.train@gmail.com</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">

--- a/downloads/HPC-ED_draft_spreadsheet_template.xlsx
+++ b/downloads/HPC-ED_draft_spreadsheet_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zw427/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2B718F-732A-8A4F-8CAE-52D1CB0BAE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3DE84-459B-BA44-8AB1-612FAB0E7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="2080" windowWidth="45600" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="24520" windowHeight="25400" xr2:uid="{C125976B-43E7-EE47-82F5-DCFA9787290D}"/>
   </bookViews>
   <sheets>
     <sheet name="share" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
             <rFont val="Tahoma"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">Date of the event. Only applicable to some resources. See 'Example' tab for samples. </t>
+          <t xml:space="preserve">Date of the live event. Leave blank for persistent resources. See 'Example' tab for samples. </t>
         </r>
       </text>
     </comment>
@@ -832,11 +832,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4749800" cy="4603750"/>
+    <xdr:ext cx="4749800" cy="4914900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="TextBox 11">
@@ -850,8 +850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="469900" y="1498600"/>
-          <a:ext cx="4749800" cy="4603750"/>
+          <a:off x="495300" y="1250950"/>
+          <a:ext cx="4749800" cy="4914900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,7 +1066,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Blue headers indicate required fields and orange headers indicate the</a:t>
+            <a:t>Blue headers indicate required fields. Orange headers indicate the</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1078,7 +1078,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> fields are optional</a:t>
+            <a:t> fields are optional but highly recommended because they help people find your resource</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
@@ -1091,71 +1091,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>●  See 'Required Metadata' and 'Optional Metadata' tabs for additional</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> information, as well as the full documentation </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
-            </a:rPr>
-            <a:t>https://github.com/HPC-ED/HPC-ED.github.io/wiki/Metadata-Description</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:effectLst/>
@@ -1331,11 +1266,28 @@
               <a:effectLst/>
             </a:rPr>
           </a:br>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200" b="0">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -1358,8 +1310,162 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Dropdowns are available for fields with the triangle symbol (▼).</a:t>
-          </a:r>
+            <a:t>Click</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in the cells under fields with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>triangle symbol (▼) for dropdown</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> options</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>●  See 'Required Metadata' and 'Optional Metadata' tabs for additional</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> information, as well as the full documentation </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://github.com/HPC-ED/HPC-ED.github.io/wiki/Metadata-Description</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:effectLst/>
           </a:endParaRPr>
